--- a/network_examples/example_grid_1.xlsx
+++ b/network_examples/example_grid_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/NetworkDatafiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/network_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C9F8F9-5E66-4D4C-ADC6-1D5D3B65F8CD}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61ACB97A-A318-41D7-BDB5-DEDD73292B84}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -220,6 +220,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF97191-B8C8-4B12-8921-F601069D1D4E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.8399999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6046F4E-C8D8-4F71-AEC0-80D0C458EF45}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
